--- a/static/payroll.xlsx
+++ b/static/payroll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manish Siddhu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll-Gsync\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F507901-687D-4909-B6D1-21F8FBFE7BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677DC30E-82CA-4518-8ECF-000EE0299AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C4F1825D-09A5-4D40-AE0A-B8281D870CBD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C4F1825D-09A5-4D40-AE0A-B8281D870CBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
   <si>
     <t>empid</t>
   </si>
@@ -188,6 +186,12 @@
   </si>
   <si>
     <t>adv_adj</t>
+  </si>
+  <si>
+    <t>otp_install</t>
+  </si>
+  <si>
+    <t>otp_inc_install</t>
   </si>
 </sst>
 </file>
@@ -562,19 +566,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB6B66D-985B-4CCB-ACAC-26C1DDFDF0B8}">
-  <dimension ref="A1:BZ4"/>
+  <dimension ref="A1:CB4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BI1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BZ2" sqref="BZ2"/>
+      <selection activeCell="CA3" sqref="CA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="8.7109375"/>
+    <col min="56" max="57" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -809,8 +813,14 @@
       <c r="BZ1" t="s">
         <v>50</v>
       </c>
+      <c r="CA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1009,7 +1019,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1204,7 +1214,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
   </sheetData>
